--- a/medicine/Mort/Repas_funèbre/Repas_funèbre.xlsx
+++ b/medicine/Mort/Repas_funèbre/Repas_funèbre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Repas_fun%C3%A8bre</t>
+          <t>Repas_funèbre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un repas funèbre, également appelé repas funéraire, est un repas officié durant les rites funéraires ou après ceux-ci. Selon les peuples et les civilisations il est une composante plus ou moins importante des rites suivies lors d’un décès. Il peut aussi bien avoir une valeur rituelle et spirituelle très forte et indissociable au passage du défunt vers l’autre monde ou au contraire avoir un rôle plus secondaire en ne servant qu’à honorer ou commémorer la mémoire de celui-ci.
 </t>
